--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -70,139 +70,133 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>cakes</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>wife</t>
+    <t>cheese</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
+    <t>bread</t>
+  </si>
+  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>perfectly</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>cake</t>
+    <t>comfortable</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>gift</t>
   </si>
   <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
+    <t>cooking</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>pan</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>every</t>
@@ -211,43 +205,40 @@
     <t>coffee</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>clean</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>makes</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>positive</t>
@@ -608,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,13 +668,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -695,19 +686,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9247311827956989</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.65</v>
+        <v>0.55</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,19 +736,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -769,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -777,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3720930232558139</v>
+        <v>0.4108527131782946</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -795,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8606811145510835</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L5">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="M5">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -819,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -827,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3535353535353535</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
@@ -877,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1297297297297297</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -895,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8275862068965517</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -919,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -927,13 +918,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.7391304347826086</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -945,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,13 +944,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.7056277056277056</v>
+        <v>0.7359307359307359</v>
       </c>
       <c r="L9">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="M9">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +970,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,13 +996,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.6986301369863014</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1023,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1031,13 +1022,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.6753246753246753</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L12">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1049,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1057,13 +1048,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.6677966101694915</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="L13">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="M13">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1075,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1109,13 +1100,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.6444444444444445</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1127,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1135,13 +1126,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.630016051364366</v>
+        <v>0.6308186195826645</v>
       </c>
       <c r="L16">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M16">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1153,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1161,13 +1152,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.5882352941176471</v>
+        <v>0.609375</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1179,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1187,13 +1178,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.5600000000000001</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L18">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1205,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1213,13 +1204,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.5555555555555556</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1231,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1239,13 +1230,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.5428571428571428</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1257,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1265,13 +1256,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5389221556886228</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L21">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1283,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1291,13 +1282,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5180722891566265</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1309,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1317,13 +1308,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.515625</v>
+        <v>0.5371428571428571</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1335,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1343,13 +1334,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5128205128205128</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1361,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1369,13 +1360,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5096153846153846</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L25">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1387,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1395,13 +1386,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5079365079365079</v>
+        <v>0.52</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1413,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1421,13 +1412,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.5149700598802395</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1439,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1447,13 +1438,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4912280701754386</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1465,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1473,13 +1464,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4769230769230769</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1491,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1525,13 +1516,13 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.45</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1543,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1551,13 +1542,13 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.4210526315789473</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L32">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M32">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1569,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1577,13 +1568,13 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.4036144578313253</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L33">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1595,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>99</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1603,13 +1594,13 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.3657587548638132</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L34">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="M34">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1621,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>163</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1629,13 +1620,13 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.3553921568627451</v>
+        <v>0.4</v>
       </c>
       <c r="L35">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1647,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>263</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1655,13 +1646,13 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>0.3538461538461539</v>
+        <v>0.375</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1673,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>42</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1681,13 +1672,13 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>0.3382352941176471</v>
+        <v>0.3463035019455253</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1699,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>45</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1707,13 +1698,13 @@
         <v>49</v>
       </c>
       <c r="K38">
-        <v>0.3301369863013698</v>
+        <v>0.3205479452054795</v>
       </c>
       <c r="L38">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M38">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1725,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1733,13 +1724,13 @@
         <v>50</v>
       </c>
       <c r="K39">
-        <v>0.3082706766917293</v>
+        <v>0.3007518796992481</v>
       </c>
       <c r="L39">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M39">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1751,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1759,13 +1750,13 @@
         <v>51</v>
       </c>
       <c r="K40">
-        <v>0.2847682119205298</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="L40">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1777,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1785,13 +1776,13 @@
         <v>52</v>
       </c>
       <c r="K41">
-        <v>0.2631578947368421</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L41">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M41">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1803,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>154</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1811,13 +1802,13 @@
         <v>53</v>
       </c>
       <c r="K42">
-        <v>0.2619047619047619</v>
+        <v>0.237410071942446</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M42">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1829,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>62</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1837,13 +1828,13 @@
         <v>54</v>
       </c>
       <c r="K43">
-        <v>0.2522522522522522</v>
+        <v>0.232508073196986</v>
       </c>
       <c r="L43">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="M43">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1855,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>83</v>
+        <v>713</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1863,13 +1854,13 @@
         <v>55</v>
       </c>
       <c r="K44">
-        <v>0.2432432432432433</v>
+        <v>0.2248803827751196</v>
       </c>
       <c r="L44">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="M44">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1881,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>84</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1889,13 +1880,13 @@
         <v>56</v>
       </c>
       <c r="K45">
-        <v>0.2411194833153929</v>
+        <v>0.1943573667711599</v>
       </c>
       <c r="L45">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c r="M45">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1907,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>705</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1915,13 +1906,13 @@
         <v>57</v>
       </c>
       <c r="K46">
-        <v>0.2407407407407407</v>
+        <v>0.1930946291560102</v>
       </c>
       <c r="L46">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="M46">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1933,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>82</v>
+        <v>631</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1941,13 +1932,13 @@
         <v>58</v>
       </c>
       <c r="K47">
-        <v>0.2376237623762376</v>
+        <v>0.1867549668874172</v>
       </c>
       <c r="L47">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="M47">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1959,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>77</v>
+        <v>614</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1967,13 +1958,13 @@
         <v>59</v>
       </c>
       <c r="K48">
-        <v>0.2086330935251799</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="L48">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M48">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1985,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1993,25 +1984,25 @@
         <v>60</v>
       </c>
       <c r="K49">
-        <v>0.2039735099337748</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="L49">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="M49">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>601</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2019,13 +2010,13 @@
         <v>61</v>
       </c>
       <c r="K50">
-        <v>0.1918158567774936</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="L50">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="M50">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2037,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>632</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2045,13 +2036,13 @@
         <v>62</v>
       </c>
       <c r="K51">
-        <v>0.1786833855799373</v>
+        <v>0.1318181818181818</v>
       </c>
       <c r="L51">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M51">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2063,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>262</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2071,13 +2062,13 @@
         <v>63</v>
       </c>
       <c r="K52">
-        <v>0.1768292682926829</v>
+        <v>0.125</v>
       </c>
       <c r="L52">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="M52">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2089,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>135</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2097,13 +2088,13 @@
         <v>64</v>
       </c>
       <c r="K53">
-        <v>0.1454545454545454</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="L53">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M53">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2115,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>376</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2123,25 +2114,25 @@
         <v>65</v>
       </c>
       <c r="K54">
-        <v>0.1405405405405405</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="L54">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M54">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N54">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>318</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2149,13 +2140,13 @@
         <v>66</v>
       </c>
       <c r="K55">
-        <v>0.1299435028248588</v>
+        <v>0.1134453781512605</v>
       </c>
       <c r="L55">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2167,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>154</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2175,13 +2166,13 @@
         <v>67</v>
       </c>
       <c r="K56">
-        <v>0.1296296296296296</v>
+        <v>0.1107011070110701</v>
       </c>
       <c r="L56">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M56">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2193,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2201,13 +2192,13 @@
         <v>68</v>
       </c>
       <c r="K57">
-        <v>0.1180811808118081</v>
+        <v>0.1065292096219931</v>
       </c>
       <c r="L57">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M57">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2219,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>239</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2227,13 +2218,13 @@
         <v>69</v>
       </c>
       <c r="K58">
-        <v>0.116945107398568</v>
+        <v>0.09069212410501193</v>
       </c>
       <c r="L58">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M58">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2245,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>370</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2253,13 +2244,13 @@
         <v>70</v>
       </c>
       <c r="K59">
-        <v>0.1162280701754386</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="L59">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="M59">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2271,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>403</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2279,25 +2270,25 @@
         <v>71</v>
       </c>
       <c r="K60">
-        <v>0.1133004926108374</v>
+        <v>0.05308464849354376</v>
       </c>
       <c r="L60">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M60">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>180</v>
+        <v>660</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2305,25 +2296,25 @@
         <v>72</v>
       </c>
       <c r="K61">
-        <v>0.1046228710462287</v>
+        <v>0.04498269896193772</v>
       </c>
       <c r="L61">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="M61">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>368</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2331,25 +2322,25 @@
         <v>73</v>
       </c>
       <c r="K62">
-        <v>0.09278350515463918</v>
+        <v>0.04423076923076923</v>
       </c>
       <c r="L62">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M62">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>264</v>
+        <v>497</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2357,103 +2348,25 @@
         <v>74</v>
       </c>
       <c r="K63">
-        <v>0.07276119402985075</v>
+        <v>0.04251386321626617</v>
       </c>
       <c r="L63">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="M63">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
-      <c r="J64" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K64">
-        <v>0.05730129390018484</v>
-      </c>
-      <c r="L64">
-        <v>31</v>
-      </c>
-      <c r="M64">
-        <v>32</v>
-      </c>
-      <c r="N64">
-        <v>0.97</v>
-      </c>
-      <c r="O64">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P64" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q64">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="65" spans="10:17">
-      <c r="J65" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K65">
-        <v>0.054519368723099</v>
-      </c>
-      <c r="L65">
-        <v>38</v>
-      </c>
-      <c r="M65">
-        <v>39</v>
-      </c>
-      <c r="N65">
-        <v>0.97</v>
-      </c>
-      <c r="O65">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P65" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="66" spans="10:17">
-      <c r="J66" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K66">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="L66">
-        <v>42</v>
-      </c>
-      <c r="M66">
-        <v>44</v>
-      </c>
-      <c r="N66">
-        <v>0.95</v>
-      </c>
-      <c r="O66">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P66" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <v>1113</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
